--- a/MoneyMatters.xlsx
+++ b/MoneyMatters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdace82c1c5d2c62/Documents/Devopslab/Harryskitchen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{F96C38C1-65C4-4399-98A5-64057E5397DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0720DA6-2B1B-40D6-AED4-F55AC1C7CDAC}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{F96C38C1-65C4-4399-98A5-64057E5397DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{526F7EA8-C51C-4109-A094-63DFCD887260}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B51C405D-E157-4774-8890-AC5163AC7878}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Money Handovered to Ramya</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">Zelle from Hemanth </t>
+  </si>
+  <si>
+    <t>Zelle from Hemanth,Shalini,Sunitha</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -178,6 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -520,7 +524,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -545,7 +549,7 @@
       </c>
       <c r="F1" s="4">
         <f>SUM(C:C)</f>
-        <v>783</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -580,7 +584,7 @@
       </c>
       <c r="F3" s="4">
         <f>F2-F1-24</f>
-        <v>-113</v>
+        <v>-174</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -683,8 +687,15 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="6">
+        <v>46006</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
